--- a/FlowDiagram_New.xlsx
+++ b/FlowDiagram_New.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSupport\Desktop\changshin_factory2\APSS_20170329\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Autonics\changshin_apss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -324,7 +324,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -332,14 +332,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -347,7 +347,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -356,14 +356,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1016,7 +1016,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5511,7 +5511,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5566,7 +5572,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Diamond 2"/>
+        <xdr:cNvPr id="3" name="Diamond 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5621,7 +5633,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Diamond 3"/>
+        <xdr:cNvPr id="4" name="Diamond 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5676,7 +5694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5713,7 +5737,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Data = Count</a:t>
+            <a:t> Data = Woring Count</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -5736,7 +5760,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Elbow Connector 6"/>
+        <xdr:cNvPr id="7" name="Elbow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="5" idx="0"/>
@@ -5786,7 +5816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5846,7 +5882,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Elbow Connector 10"/>
+        <xdr:cNvPr id="11" name="Elbow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="9" idx="0"/>
@@ -5896,7 +5938,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5951,7 +5999,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Diamond 16"/>
+        <xdr:cNvPr id="17" name="Diamond 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6006,7 +6060,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="2"/>
           <a:endCxn id="15" idx="0"/>
@@ -6056,7 +6116,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="2"/>
           <a:endCxn id="17" idx="0"/>
@@ -6106,7 +6172,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -6156,7 +6228,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -6201,7 +6279,13 @@
     <xdr:ext cx="378758" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6258,7 +6342,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6320,7 +6410,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="34" idx="0"/>
@@ -6370,7 +6466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6407,6 +6509,1800 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>TimerGetAct</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025588" y="2305050"/>
+          <a:ext cx="378758" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>131108</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="350096" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1703294" y="2036108"/>
+          <a:ext cx="350096" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7351059" y="4635874"/>
+          <a:ext cx="378758" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>240926</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>240926</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8712573" y="4916580"/>
+          <a:ext cx="2420471" cy="327773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Insert DB to RST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>240927</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8566897" y="4135531"/>
+          <a:ext cx="1355912" cy="781049"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97491</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="350096" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8561294" y="3907491"/>
+          <a:ext cx="350096" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>24920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136736</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rounded Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE79CADA-C403-4703-9FFA-F9B16D0677F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="8307529"/>
+          <a:ext cx="2749826" cy="318881"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Timer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ReadBarcode</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3078AC6D-B06F-4305-BDD7-BDE1708EB03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="8906314"/>
+          <a:ext cx="2749826" cy="318880"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0 - Machine barcode</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3529CE1-6DF4-464C-AEC6-11607B63A507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6969815" y="7194298"/>
+          <a:ext cx="2749826" cy="359442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Download next order</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064A1AE6-3DB1-484E-A8B8-0883D816E7B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8344728" y="6924261"/>
+          <a:ext cx="0" cy="270037"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Diamond 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F439F75-06D9-4752-8AA6-6202F9F45674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6969815" y="6351957"/>
+          <a:ext cx="2749826" cy="572304"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Next</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Order?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169793</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>169793</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0955C934-0C86-4018-B754-4325F48F5861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9794184" y="9472016"/>
+          <a:ext cx="2749826" cy="359442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>set Manual Mode : Station,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C74C832-7FDB-4393-8E78-C681CFB72E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8344728" y="7553740"/>
+          <a:ext cx="0" cy="1258150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CF4C03-8CD6-489A-8EEB-EA17A0477D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8344728" y="6073246"/>
+          <a:ext cx="0" cy="278711"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Diamond 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC84D47-8942-4B6A-957B-339DFB7BC814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6969815" y="8811890"/>
+          <a:ext cx="2749826" cy="572304"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Different</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> next Mold?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131061</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>72156</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C371F48D-CB4E-4770-AE1E-928FF5208E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9755452" y="7940634"/>
+          <a:ext cx="378758" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>194238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>169793</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Elbow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7B92BF-A946-4FE9-BC2B-719C8F63BBA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9719641" y="9098042"/>
+          <a:ext cx="1449456" cy="373974"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103532</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103532</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Diamond 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486811F0-BBEF-418A-929F-B288FAE0C4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6978097" y="7884239"/>
+          <a:ext cx="2749826" cy="572304"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Order 3?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>186358</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>186358</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51437A70-B70F-46DE-A947-DE16E6EC7183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810749" y="8444972"/>
+          <a:ext cx="2749826" cy="359442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Insert DB to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> alarm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>103532</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>186358</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Elbow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621B6B65-9509-4BCF-BB36-A82106B363D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9727923" y="8170391"/>
+          <a:ext cx="1457739" cy="274581"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>131061</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>179830</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="TextBox 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0912553F-B5ED-44E4-89B9-B1EB1F52B456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9755452" y="8876569"/>
+          <a:ext cx="378758" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>64629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7C13A9-1A4A-4DC0-A29E-797C914FB4AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="9477814"/>
+          <a:ext cx="2749826" cy="318880"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1 - Mold barcode</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>136736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2510</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C86B02-77EC-4DFC-ACB6-388080F3D35F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1870213" y="8626410"/>
+          <a:ext cx="0" cy="279904"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159879</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9435385B-ACFF-441D-8835-1AEC35A11D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1870213" y="9225194"/>
+          <a:ext cx="0" cy="252620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>131717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Diamond 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1525374-F822-4D74-9862-D0847CD6D76D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="492814" y="10070847"/>
+          <a:ext cx="2749826" cy="572304"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>check Mold Table</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>64629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>131717</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6CBE86-CFEC-45CF-AC7E-3BD6496950DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1867727" y="9796694"/>
+          <a:ext cx="2486" cy="274153"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>162363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61BD8D6-B844-45CE-A2B4-C4FA99374E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="492814" y="11758015"/>
+          <a:ext cx="2749826" cy="359442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>set Auto Mode : Station, Direction</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495496</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>97004</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CF9F43-0F60-47ED-B43F-1BB88E37E968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1870409" y="10657330"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>162363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A385A078-9A54-4B93-9D54-18EB7B8F4429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="2"/>
+          <a:endCxn id="95" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1867727" y="10643151"/>
+          <a:ext cx="0" cy="1114864"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>492814</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Diamond 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7D1AD0-38D9-4132-BEAB-AAC26F2698C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="492814" y="10890825"/>
+          <a:ext cx="2749826" cy="572304"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>check Mold Table</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6719,7 +8615,7 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6735,19 +8631,19 @@
       <selection activeCell="H38" sqref="H38:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="2.875" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
     <col min="16" max="16" width="2" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1">
+    <row r="1" spans="2:20" ht="17.25" thickBot="1">
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -7664,7 +9560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1">
+    <row r="26" spans="2:20" ht="17.25" thickBot="1">
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
@@ -8059,12 +9955,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
